--- a/2. Descuentos/Otros/0. Formato.xlsx
+++ b/2. Descuentos/Otros/0. Formato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\2. Descuentos\Otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC9F9DF-0E43-4EDF-BE3E-31C64B83CAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E181A3E-0F31-491F-AD09-E937328FA8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Valor</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Elvis Molina</t>
+  </si>
+  <si>
+    <t>Ajuste</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +173,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -205,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,18 +228,31 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -239,12 +261,164 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -391,55 +565,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}" name="Descuentos" displayName="Descuentos" ref="A1:F200" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}" name="Descuentos" displayName="Descuentos" ref="A1:F200" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:F200" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DEF36DE3-AB9E-4054-92CE-301AEC08F646}" name="Fecha" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{F736B774-8E22-4323-BA5E-C22234709F81}" name="Profesional" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{30440FD2-523E-49B2-A615-DF46C3E311FE}" name="Tipo" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{68A15CDA-658D-4B90-91AA-75B669ED03FB}" name="Concepto" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{7D0FD0DE-C5B3-4592-803C-0D87BF7BDB74}" name="Valor" dataDxfId="3" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{CA093F04-1CF0-437B-AE68-772AB2DAA16D}" name="Observación" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{DEF36DE3-AB9E-4054-92CE-301AEC08F646}" name="Fecha" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{F736B774-8E22-4323-BA5E-C22234709F81}" name="Profesional" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{30440FD2-523E-49B2-A615-DF46C3E311FE}" name="Tipo" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{68A15CDA-658D-4B90-91AA-75B669ED03FB}" name="Concepto" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{7D0FD0DE-C5B3-4592-803C-0D87BF7BDB74}" name="Valor" dataDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{CA093F04-1CF0-437B-AE68-772AB2DAA16D}" name="Observación" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7F6B4345-C9D3-4DF9-A82F-89A0366F980D}" name="Tabla_Profesionales" displayName="Tabla_Profesionales" ref="A1:A12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7F6B4345-C9D3-4DF9-A82F-89A0366F980D}" name="Tabla_Profesionales" displayName="Tabla_Profesionales" ref="A1:A12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:A12" xr:uid="{7F6B4345-C9D3-4DF9-A82F-89A0366F980D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{56BCF1F8-880D-4A55-840A-6A33B1465132}" name="Profesional"/>
+    <tableColumn id="1" xr3:uid="{56BCF1F8-880D-4A55-840A-6A33B1465132}" name="Profesional" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2396CC4A-59DB-461E-AE99-73D9D22EF1B0}" name="Tabla_Fondo" displayName="Tabla_Fondo" ref="E1:E8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2396CC4A-59DB-461E-AE99-73D9D22EF1B0}" name="Tabla_Fondo" displayName="Tabla_Fondo" ref="E1:E8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="E1:E8" xr:uid="{2396CC4A-59DB-461E-AE99-73D9D22EF1B0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{ABE18092-6574-4072-8A92-7C9CB834DFF5}" name="Fondo"/>
+    <tableColumn id="1" xr3:uid="{ABE18092-6574-4072-8A92-7C9CB834DFF5}" name="Fondo" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05E57CB7-BA87-4245-BD8B-276813E4026E}" name="Tabla_Descuentos" displayName="Tabla_Descuentos" ref="G1:G5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05E57CB7-BA87-4245-BD8B-276813E4026E}" name="Tabla_Descuentos" displayName="Tabla_Descuentos" ref="G1:G5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="G1:G5" xr:uid="{05E57CB7-BA87-4245-BD8B-276813E4026E}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8B109D5C-FE66-4981-8367-CD316BA93394}" name="Descuentos"/>
+    <tableColumn id="1" xr3:uid="{8B109D5C-FE66-4981-8367-CD316BA93394}" name="Descuentos" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2C7A318E-AF14-423F-BAD6-5A01ED675E52}" name="Tabla_Opciones" displayName="Tabla_Opciones" ref="C1:C4" totalsRowShown="0" dataDxfId="1">
-  <autoFilter ref="C1:C4" xr:uid="{2C7A318E-AF14-423F-BAD6-5A01ED675E52}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2C7A318E-AF14-423F-BAD6-5A01ED675E52}" name="Tabla_Opciones" displayName="Tabla_Opciones" ref="C1:C5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="C1:C5" xr:uid="{2C7A318E-AF14-423F-BAD6-5A01ED675E52}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4E856376-E0CD-45C5-9126-2EF4C144CBA1}" name="Opciones" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4E856376-E0CD-45C5-9126-2EF4C144CBA1}" name="Opciones" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -777,1013 +951,1205 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3">
+        <f ca="1">+TODAY()</f>
+        <v>45653</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C192" s="7"/>
-      <c r="D192" s="7"/>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C193" s="7"/>
-      <c r="D193" s="7"/>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C194" s="7"/>
-      <c r="D194" s="7"/>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C195" s="7"/>
-      <c r="D195" s="7"/>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C196" s="7"/>
-      <c r="D196" s="7"/>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="3"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="3"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="3"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="3"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
       <c r="E200" s="4"/>
     </row>
   </sheetData>
@@ -1816,131 +2182,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0190FAE6-79D4-4FD7-B99A-E749685B477E}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="2" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="2" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="2" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
     </row>
